--- a/SUZHOU_CHANGE_EQUATION/超高层住宅系数计算结果.xlsx
+++ b/SUZHOU_CHANGE_EQUATION/超高层住宅系数计算结果.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="32">
   <si>
     <t>城市</t>
   </si>
@@ -76,13 +76,10 @@
     <t>ratio</t>
   </si>
   <si>
-    <t>评估价格</t>
-  </si>
-  <si>
     <t>xishu</t>
   </si>
   <si>
-    <t>equation</t>
+    <t>评估价格</t>
   </si>
   <si>
     <t>宿州市</t>
@@ -113,12 +110,6 @@
   </si>
   <si>
     <t>毛坯</t>
-  </si>
-  <si>
-    <t>[-30.5585672   34.61905262  89.67569287]</t>
-  </si>
-  <si>
-    <t>[-2509.15245407  3156.86398144 12499.34637923]</t>
   </si>
 </sst>
 </file>
@@ -480,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,25 +544,22 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -583,16 +571,16 @@
         <v>92.78</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>2013</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2">
         <v>43205</v>
@@ -619,30 +607,27 @@
         <v>0.08823529411764706</v>
       </c>
       <c r="U2">
-        <v>4895.822304341828</v>
+        <v>58150.14784451513</v>
       </c>
       <c r="V2">
-        <v>92.49240244065905</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>4879.999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -654,16 +639,16 @@
         <v>92.78</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>2013</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2">
         <v>43205</v>
@@ -690,30 +675,27 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="U3">
-        <v>4939.923482169681</v>
+        <v>59580.06951282289</v>
       </c>
       <c r="V3">
-        <v>93.3255666435639</v>
-      </c>
-      <c r="W3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>4999.999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -725,16 +707,16 @@
         <v>92.78</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <v>2013</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
         <v>43205</v>
@@ -761,30 +743,27 @@
         <v>0.1470588235294118</v>
       </c>
       <c r="U4">
-        <v>4981.226163706582</v>
+        <v>59818.38979087417</v>
       </c>
       <c r="V4">
-        <v>94.10586135303519</v>
-      </c>
-      <c r="W4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>5019.999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -796,16 +775,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5">
         <v>2013</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2">
         <v>43205</v>
@@ -832,30 +811,27 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="U5">
-        <v>5019.730348952532</v>
+        <v>60056.71006892547</v>
       </c>
       <c r="V5">
-        <v>94.83328656907291</v>
-      </c>
-      <c r="W5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>5039.999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -867,16 +843,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6">
         <v>2013</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2">
         <v>43205</v>
@@ -903,30 +879,27 @@
         <v>0.2058823529411765</v>
       </c>
       <c r="U6">
-        <v>5055.436037907532</v>
+        <v>60295.03034697675</v>
       </c>
       <c r="V6">
-        <v>95.50784229167705</v>
-      </c>
-      <c r="W6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>5059.999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -938,16 +911,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7">
         <v>2013</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="2">
         <v>43205</v>
@@ -974,30 +947,27 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="U7">
-        <v>5088.343230571579</v>
+        <v>60533.35062502806</v>
       </c>
       <c r="V7">
-        <v>96.12952852084763</v>
-      </c>
-      <c r="W7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>5079.999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -1009,16 +979,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8">
         <v>2013</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="2">
         <v>43205</v>
@@ -1045,30 +1015,27 @@
         <v>0.2647058823529412</v>
       </c>
       <c r="U8">
-        <v>5118.451926944679</v>
+        <v>60771.67090307934</v>
       </c>
       <c r="V8">
-        <v>96.69834525658464</v>
-      </c>
-      <c r="W8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>5099.999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1080,16 +1047,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9">
         <v>2013</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2">
         <v>43205</v>
@@ -1116,30 +1083,27 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="U9">
-        <v>5145.762127026824</v>
+        <v>61009.99118113063</v>
       </c>
       <c r="V9">
-        <v>97.21429249888807</v>
-      </c>
-      <c r="W9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>5119.999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -1151,16 +1115,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10">
         <v>2013</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M10" s="2">
         <v>43205</v>
@@ -1187,30 +1151,27 @@
         <v>0.3235294117647059</v>
       </c>
       <c r="U10">
-        <v>5170.273830818019</v>
+        <v>61248.31145918192</v>
       </c>
       <c r="V10">
-        <v>97.67737024775793</v>
-      </c>
-      <c r="W10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>5139.999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>12</v>
@@ -1222,16 +1183,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11">
         <v>2013</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" s="2">
         <v>43205</v>
@@ -1258,30 +1219,27 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="U11">
-        <v>5191.987038318264</v>
+        <v>61486.63173723322</v>
       </c>
       <c r="V11">
-        <v>98.08757850319424</v>
-      </c>
-      <c r="W11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>5159.999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <v>13</v>
@@ -1293,16 +1251,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12">
         <v>2013</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12" s="2">
         <v>43205</v>
@@ -1329,30 +1287,27 @@
         <v>0.3823529411764706</v>
       </c>
       <c r="U12">
-        <v>5210.901749527558</v>
+        <v>61724.95201528451</v>
       </c>
       <c r="V12">
-        <v>98.44491726519696</v>
-      </c>
-      <c r="W12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>5179.999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>14</v>
@@ -1364,16 +1319,16 @@
         <v>92.78</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13">
         <v>2013</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13" s="2">
         <v>43205</v>
@@ -1400,30 +1355,27 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="U13">
-        <v>5227.017964445901</v>
+        <v>61963.27229333579</v>
       </c>
       <c r="V13">
-        <v>98.74938653376611</v>
-      </c>
-      <c r="W13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>5199.999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14">
         <v>15</v>
@@ -1435,16 +1387,16 @@
         <v>92.78</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14">
         <v>2013</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M14" s="2">
         <v>43205</v>
@@ -1471,30 +1423,27 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="U14">
-        <v>5240.335683073293</v>
+        <v>62201.5925713871</v>
       </c>
       <c r="V14">
-        <v>99.0009863089017</v>
-      </c>
-      <c r="W14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>5219.999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>16</v>
@@ -1506,16 +1455,16 @@
         <v>92.78</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15">
         <v>2013</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M15" s="2">
         <v>43205</v>
@@ -1542,30 +1491,27 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="U15">
-        <v>5250.854905409733</v>
+        <v>62439.91284943838</v>
       </c>
       <c r="V15">
-        <v>99.19971659060371</v>
-      </c>
-      <c r="W15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>5239.999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <v>17</v>
@@ -1577,16 +1523,16 @@
         <v>92.78</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16">
         <v>2013</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" s="2">
         <v>43205</v>
@@ -1613,30 +1559,27 @@
         <v>0.5</v>
       </c>
       <c r="U16">
-        <v>5258.575631455223</v>
+        <v>62439.91284943838</v>
       </c>
       <c r="V16">
-        <v>99.34557737887215</v>
-      </c>
-      <c r="W16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+        <v>5239.999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17">
         <v>18</v>
@@ -1648,16 +1591,16 @@
         <v>92.78</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17">
         <v>2013</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17" s="2">
         <v>43205</v>
@@ -1684,30 +1627,27 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="U17">
-        <v>5263.497861209763</v>
+        <v>62678.23312748969</v>
       </c>
       <c r="V17">
-        <v>99.43856867370702</v>
-      </c>
-      <c r="W17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>19</v>
@@ -1719,16 +1659,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18">
         <v>2013</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18" s="2">
         <v>43205</v>
@@ -1755,30 +1695,27 @@
         <v>0.5588235294117647</v>
       </c>
       <c r="U18">
-        <v>5265.62159467335</v>
+        <v>62916.55340554097</v>
       </c>
       <c r="V18">
-        <v>99.47869047510832</v>
-      </c>
-      <c r="W18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>5279.999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1790,16 +1727,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19">
         <v>2013</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M19" s="2">
         <v>43205</v>
@@ -1826,30 +1763,27 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="U19">
-        <v>5264.946831845987</v>
+        <v>63154.87368359228</v>
       </c>
       <c r="V19">
-        <v>99.46594278307606</v>
-      </c>
-      <c r="W19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>21</v>
@@ -1861,16 +1795,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20">
         <v>2013</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20" s="2">
         <v>43205</v>
@@ -1897,30 +1831,27 @@
         <v>0.6176470588235294</v>
       </c>
       <c r="U20">
-        <v>5261.473572727673</v>
+        <v>63154.87368359225</v>
       </c>
       <c r="V20">
-        <v>99.40032559761022</v>
-      </c>
-      <c r="W20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>5299.999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21">
         <v>22</v>
@@ -1932,16 +1863,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21">
         <v>2013</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M21" s="2">
         <v>43205</v>
@@ -1968,30 +1899,27 @@
         <v>0.6470588235294118</v>
       </c>
       <c r="U21">
-        <v>5255.201817318408</v>
+        <v>62916.55340554097</v>
       </c>
       <c r="V21">
-        <v>99.28183891871082</v>
-      </c>
-      <c r="W21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+        <v>5279.999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22">
         <v>23</v>
@@ -2003,16 +1931,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22">
         <v>2013</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M22" s="2">
         <v>43205</v>
@@ -2039,30 +1967,27 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="U22">
-        <v>5246.131565618193</v>
+        <v>62678.23312748967</v>
       </c>
       <c r="V22">
-        <v>99.11048274637784</v>
-      </c>
-      <c r="W22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>5259.999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23">
         <v>24</v>
@@ -2074,16 +1999,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23">
         <v>2013</v>
       </c>
       <c r="K23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M23" s="2">
         <v>43205</v>
@@ -2110,30 +2035,27 @@
         <v>0.7058823529411765</v>
       </c>
       <c r="U23">
-        <v>5234.262817627026</v>
+        <v>62439.91284943839</v>
       </c>
       <c r="V23">
-        <v>98.8862570806113</v>
-      </c>
-      <c r="W23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+        <v>5239.999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
         <v>25</v>
       </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24">
         <v>25</v>
@@ -2145,16 +2067,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24">
         <v>2013</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M24" s="2">
         <v>43205</v>
@@ -2181,30 +2103,27 @@
         <v>0.7352941176470589</v>
       </c>
       <c r="U24">
-        <v>5219.595573344908</v>
+        <v>62201.5925713871</v>
       </c>
       <c r="V24">
-        <v>98.60916192141117</v>
-      </c>
-      <c r="W24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+        <v>5219.999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25">
         <v>26</v>
@@ -2216,16 +2135,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J25">
         <v>2013</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M25" s="2">
         <v>43205</v>
@@ -2252,30 +2171,27 @@
         <v>0.7647058823529411</v>
       </c>
       <c r="U25">
-        <v>5202.12983277184</v>
+        <v>61963.27229333581</v>
       </c>
       <c r="V25">
-        <v>98.27919726877749</v>
-      </c>
-      <c r="W25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+        <v>5199.999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26">
         <v>27</v>
@@ -2287,16 +2203,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26">
         <v>2013</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M26" s="2">
         <v>43205</v>
@@ -2323,30 +2239,27 @@
         <v>0.7941176470588235</v>
       </c>
       <c r="U26">
-        <v>5181.865595907819</v>
+        <v>61724.95201528451</v>
       </c>
       <c r="V26">
-        <v>97.89636312271023</v>
-      </c>
-      <c r="W26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+        <v>5179.999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27">
         <v>28</v>
@@ -2358,16 +2271,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27">
         <v>2013</v>
       </c>
       <c r="K27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M27" s="2">
         <v>43205</v>
@@ -2394,30 +2307,27 @@
         <v>0.8235294117647058</v>
       </c>
       <c r="U27">
-        <v>5158.802862752849</v>
+        <v>61486.63173723323</v>
       </c>
       <c r="V27">
-        <v>97.4606594832094</v>
-      </c>
-      <c r="W27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+        <v>5159.999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
         <v>25</v>
       </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28">
         <v>29</v>
@@ -2429,16 +2339,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28">
         <v>2013</v>
       </c>
       <c r="K28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M28" s="2">
         <v>43205</v>
@@ -2465,30 +2375,27 @@
         <v>0.8529411764705882</v>
       </c>
       <c r="U28">
-        <v>5132.941633306928</v>
+        <v>61248.31145918192</v>
       </c>
       <c r="V28">
-        <v>96.97208635027501</v>
-      </c>
-      <c r="W28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+        <v>5139.999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29">
         <v>30</v>
@@ -2500,16 +2407,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J29">
         <v>2013</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M29" s="2">
         <v>43205</v>
@@ -2536,30 +2443,27 @@
         <v>0.8823529411764706</v>
       </c>
       <c r="U29">
-        <v>5104.281907570055</v>
+        <v>61009.99118113062</v>
       </c>
       <c r="V29">
-        <v>96.43064372390704</v>
-      </c>
-      <c r="W29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+        <v>5119.999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
         <v>25</v>
       </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30">
         <v>31</v>
@@ -2571,16 +2475,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30">
         <v>2013</v>
       </c>
       <c r="K30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M30" s="2">
         <v>43205</v>
@@ -2607,30 +2511,27 @@
         <v>0.9117647058823529</v>
       </c>
       <c r="U30">
-        <v>5072.823685542232</v>
+        <v>60771.67090307934</v>
       </c>
       <c r="V30">
-        <v>95.8363316041055</v>
-      </c>
-      <c r="W30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+        <v>5099.999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31">
         <v>32</v>
@@ -2642,16 +2543,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31">
         <v>2013</v>
       </c>
       <c r="K31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M31" s="2">
         <v>43205</v>
@@ -2678,30 +2579,27 @@
         <v>0.9411764705882353</v>
       </c>
       <c r="U31">
-        <v>5038.566967223458</v>
+        <v>60533.35062502805</v>
       </c>
       <c r="V31">
-        <v>95.18914999087039</v>
-      </c>
-      <c r="W31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+        <v>5079.999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
         <v>25</v>
       </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32">
         <v>33</v>
@@ -2713,16 +2611,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J32">
         <v>2013</v>
       </c>
       <c r="K32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M32" s="2">
         <v>43205</v>
@@ -2749,30 +2647,27 @@
         <v>0.9705882352941176</v>
       </c>
       <c r="U32">
-        <v>5001.511752613732</v>
+        <v>60295.03034697677</v>
       </c>
       <c r="V32">
-        <v>94.4890988842017</v>
-      </c>
-      <c r="W32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33">
         <v>34</v>
@@ -2784,16 +2679,16 @@
         <v>91.18000000000001</v>
       </c>
       <c r="I33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33">
         <v>2013</v>
       </c>
       <c r="K33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M33" s="2">
         <v>43205</v>
@@ -2820,57 +2715,54 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <v>4961.658041713057</v>
+        <v>57196.86673230995</v>
       </c>
       <c r="V33">
-        <v>93.73617828409945</v>
-      </c>
-      <c r="W33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+        <v>4799.999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>34</v>
       </c>
       <c r="H34">
-        <v>110.69</v>
+        <v>113.74</v>
       </c>
       <c r="I34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34">
         <v>2017</v>
       </c>
       <c r="K34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M34" s="2">
         <v>43205</v>
       </c>
       <c r="N34">
-        <v>7000</v>
+        <v>6820</v>
       </c>
       <c r="O34">
         <v>100</v>
@@ -2888,60 +2780,57 @@
         <v>98</v>
       </c>
       <c r="T34">
-        <v>0.02941176470588235</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="U34">
-        <v>6744.108547293622</v>
+        <v>31386.17262558842</v>
       </c>
       <c r="V34">
-        <v>12590.0247727513</v>
-      </c>
-      <c r="W34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+        <v>6820.000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>34</v>
       </c>
       <c r="H35">
-        <v>113.74</v>
+        <v>110.69</v>
       </c>
       <c r="I35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J35">
         <v>2017</v>
       </c>
       <c r="K35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M35" s="2">
         <v>43205</v>
       </c>
       <c r="N35">
-        <v>6820</v>
+        <v>6840</v>
       </c>
       <c r="O35">
         <v>100</v>
@@ -2959,60 +2848,57 @@
         <v>98</v>
       </c>
       <c r="T35">
-        <v>0.05882352941176471</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="U35">
-        <v>6790.356916837232</v>
+        <v>31478.21418754028</v>
       </c>
       <c r="V35">
-        <v>12676.36207206524</v>
-      </c>
-      <c r="W35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+        <v>6840.000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <v>34</v>
       </c>
       <c r="H36">
-        <v>110.69</v>
+        <v>113.74</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J36">
         <v>2017</v>
       </c>
       <c r="K36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M36" s="2">
         <v>43205</v>
       </c>
       <c r="N36">
-        <v>6840</v>
+        <v>6860</v>
       </c>
       <c r="O36">
         <v>100</v>
@@ -3030,60 +2916,57 @@
         <v>98</v>
       </c>
       <c r="T36">
-        <v>0.08823529411764706</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="U36">
-        <v>6834.279889004522</v>
+        <v>31570.25574949215</v>
       </c>
       <c r="V36">
-        <v>12758.35827716798</v>
-      </c>
-      <c r="W36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+        <v>6860.000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <v>34</v>
       </c>
       <c r="H37">
-        <v>113.74</v>
+        <v>96.94</v>
       </c>
       <c r="I37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J37">
         <v>2017</v>
       </c>
       <c r="K37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M37" s="2">
         <v>43205</v>
       </c>
       <c r="N37">
-        <v>6860</v>
+        <v>6880</v>
       </c>
       <c r="O37">
         <v>100</v>
@@ -3101,60 +2984,57 @@
         <v>98</v>
       </c>
       <c r="T37">
-        <v>0.1176470588235294</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="U37">
-        <v>6875.877463795494</v>
+        <v>31662.29731144403</v>
       </c>
       <c r="V37">
-        <v>12836.01338805953</v>
-      </c>
-      <c r="W37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+        <v>6880.000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38">
         <v>34</v>
       </c>
       <c r="H38">
-        <v>96.94</v>
+        <v>113.74</v>
       </c>
       <c r="I38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J38">
         <v>2017</v>
       </c>
       <c r="K38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M38" s="2">
         <v>43205</v>
       </c>
       <c r="N38">
-        <v>6880</v>
+        <v>6900</v>
       </c>
       <c r="O38">
         <v>100</v>
@@ -3172,36 +3052,33 @@
         <v>98</v>
       </c>
       <c r="T38">
-        <v>0.1470588235294118</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="U38">
-        <v>6915.149641210147</v>
+        <v>31754.3388733959</v>
       </c>
       <c r="V38">
-        <v>12909.32740473988</v>
-      </c>
-      <c r="W38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+        <v>6900.000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <v>34</v>
@@ -3210,22 +3087,22 @@
         <v>113.74</v>
       </c>
       <c r="I39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J39">
         <v>2017</v>
       </c>
       <c r="K39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M39" s="2">
         <v>43205</v>
       </c>
       <c r="N39">
-        <v>6900</v>
+        <v>6920</v>
       </c>
       <c r="O39">
         <v>100</v>
@@ -3243,36 +3120,33 @@
         <v>98</v>
       </c>
       <c r="T39">
-        <v>0.1764705882352941</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="U39">
-        <v>6952.096421248485</v>
+        <v>31846.38043534777</v>
       </c>
       <c r="V39">
-        <v>12978.30032720904</v>
-      </c>
-      <c r="W39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40">
         <v>34</v>
@@ -3281,22 +3155,22 @@
         <v>113.74</v>
       </c>
       <c r="I40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J40">
         <v>2017</v>
       </c>
       <c r="K40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M40" s="2">
         <v>43205</v>
       </c>
       <c r="N40">
-        <v>6920</v>
+        <v>6940</v>
       </c>
       <c r="O40">
         <v>100</v>
@@ -3314,36 +3188,33 @@
         <v>98</v>
       </c>
       <c r="T40">
-        <v>0.2058823529411765</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="U40">
-        <v>6986.717803910502</v>
+        <v>31938.42199729965</v>
       </c>
       <c r="V40">
-        <v>13042.93215546699</v>
-      </c>
-      <c r="W40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+        <v>6940.000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41">
         <v>34</v>
@@ -3352,22 +3223,22 @@
         <v>113.74</v>
       </c>
       <c r="I41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J41">
         <v>2017</v>
       </c>
       <c r="K41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M41" s="2">
         <v>43205</v>
       </c>
       <c r="N41">
-        <v>6940</v>
+        <v>6960</v>
       </c>
       <c r="O41">
         <v>100</v>
@@ -3385,36 +3256,33 @@
         <v>98</v>
       </c>
       <c r="T41">
-        <v>0.2352941176470588</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="U41">
-        <v>7019.013789196203</v>
+        <v>32030.46355925152</v>
       </c>
       <c r="V41">
-        <v>13103.22288951375</v>
-      </c>
-      <c r="W41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+        <v>6960.000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G42">
         <v>34</v>
@@ -3423,22 +3291,22 @@
         <v>113.74</v>
       </c>
       <c r="I42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J42">
         <v>2017</v>
       </c>
       <c r="K42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M42" s="2">
         <v>43205</v>
       </c>
       <c r="N42">
-        <v>6960</v>
+        <v>6980</v>
       </c>
       <c r="O42">
         <v>100</v>
@@ -3456,36 +3324,33 @@
         <v>98</v>
       </c>
       <c r="T42">
-        <v>0.2647058823529412</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="U42">
-        <v>7048.984377105585</v>
+        <v>32122.5051212034</v>
       </c>
       <c r="V42">
-        <v>13159.17252934932</v>
-      </c>
-      <c r="W42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+        <v>6980.000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>34</v>
@@ -3494,22 +3359,22 @@
         <v>113.74</v>
       </c>
       <c r="I43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J43">
         <v>2017</v>
       </c>
       <c r="K43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M43" s="2">
         <v>43205</v>
       </c>
       <c r="N43">
-        <v>6980</v>
+        <v>7000</v>
       </c>
       <c r="O43">
         <v>100</v>
@@ -3527,36 +3392,33 @@
         <v>98</v>
       </c>
       <c r="T43">
-        <v>0.2941176470588235</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="U43">
-        <v>7076.629567638648</v>
+        <v>32214.54668315526</v>
       </c>
       <c r="V43">
-        <v>13210.78107497369</v>
-      </c>
-      <c r="W43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+        <v>7000.000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44">
         <v>34</v>
@@ -3565,22 +3427,22 @@
         <v>113.74</v>
       </c>
       <c r="I44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J44">
         <v>2017</v>
       </c>
       <c r="K44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M44" s="2">
         <v>43205</v>
       </c>
       <c r="N44">
-        <v>7000</v>
+        <v>7020</v>
       </c>
       <c r="O44">
         <v>100</v>
@@ -3598,60 +3460,57 @@
         <v>98</v>
       </c>
       <c r="T44">
-        <v>0.3235294117647059</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="U44">
-        <v>7101.949360795393</v>
+        <v>32306.58824510713</v>
       </c>
       <c r="V44">
-        <v>13258.04852638686</v>
-      </c>
-      <c r="W44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+        <v>7020.000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45">
         <v>34</v>
       </c>
       <c r="H45">
-        <v>113.74</v>
+        <v>110.58</v>
       </c>
       <c r="I45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J45">
         <v>2017</v>
       </c>
       <c r="K45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M45" s="2">
         <v>43205</v>
       </c>
       <c r="N45">
-        <v>7020</v>
+        <v>7040</v>
       </c>
       <c r="O45">
         <v>100</v>
@@ -3669,60 +3528,57 @@
         <v>98</v>
       </c>
       <c r="T45">
-        <v>0.3529411764705883</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="U45">
-        <v>7124.943756575823</v>
+        <v>32398.62980705901</v>
       </c>
       <c r="V45">
-        <v>13300.97488358884</v>
-      </c>
-      <c r="W45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+        <v>7040.000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G46">
         <v>34</v>
       </c>
       <c r="H46">
-        <v>110.58</v>
+        <v>86.34999999999999</v>
       </c>
       <c r="I46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J46">
         <v>2017</v>
       </c>
       <c r="K46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M46" s="2">
         <v>43205</v>
       </c>
       <c r="N46">
-        <v>7040</v>
+        <v>7060</v>
       </c>
       <c r="O46">
         <v>100</v>
@@ -3734,42 +3590,39 @@
         <v>102</v>
       </c>
       <c r="R46">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S46">
         <v>98</v>
       </c>
       <c r="T46">
-        <v>0.3823529411764706</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="U46">
-        <v>7145.612754979931</v>
+        <v>33153.74629490907</v>
       </c>
       <c r="V46">
-        <v>13339.56014657962</v>
-      </c>
-      <c r="W46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+        <v>7060.000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G47">
         <v>34</v>
@@ -3778,22 +3631,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J47">
         <v>2017</v>
       </c>
       <c r="K47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M47" s="2">
         <v>43205</v>
       </c>
       <c r="N47">
-        <v>7060</v>
+        <v>7080</v>
       </c>
       <c r="O47">
         <v>100</v>
@@ -3811,36 +3664,33 @@
         <v>98</v>
       </c>
       <c r="T47">
-        <v>0.4117647058823529</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="U47">
-        <v>7020.677228887568</v>
+        <v>33247.66625608445</v>
       </c>
       <c r="V47">
-        <v>13373.8043153592</v>
-      </c>
-      <c r="W47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+        <v>7080.000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G48">
         <v>34</v>
@@ -3849,22 +3699,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J48">
         <v>2017</v>
       </c>
       <c r="K48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M48" s="2">
         <v>43205</v>
       </c>
       <c r="N48">
-        <v>7080</v>
+        <v>7100</v>
       </c>
       <c r="O48">
         <v>100</v>
@@ -3882,36 +3732,33 @@
         <v>98</v>
       </c>
       <c r="T48">
-        <v>0.4411764705882353</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="U48">
-        <v>7036.375068466012</v>
+        <v>33341.58621725982</v>
       </c>
       <c r="V48">
-        <v>13403.70738992759</v>
-      </c>
-      <c r="W48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+        <v>7100.000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G49">
         <v>34</v>
@@ -3920,22 +3767,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J49">
         <v>2017</v>
       </c>
       <c r="K49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M49" s="2">
         <v>43205</v>
       </c>
       <c r="N49">
-        <v>7100</v>
+        <v>7120</v>
       </c>
       <c r="O49">
         <v>100</v>
@@ -3953,36 +3800,33 @@
         <v>98</v>
       </c>
       <c r="T49">
-        <v>0.4705882352941176</v>
+        <v>0.5</v>
       </c>
       <c r="U49">
-        <v>7049.794018615664</v>
+        <v>33435.50617843521</v>
       </c>
       <c r="V49">
-        <v>13429.26937028478</v>
-      </c>
-      <c r="W49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+        <v>7120.000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F50">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G50">
         <v>34</v>
@@ -3991,22 +3835,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J50">
         <v>2017</v>
       </c>
       <c r="K50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M50" s="2">
         <v>43205</v>
       </c>
       <c r="N50">
-        <v>7120</v>
+        <v>7140</v>
       </c>
       <c r="O50">
         <v>100</v>
@@ -4024,36 +3868,33 @@
         <v>98</v>
       </c>
       <c r="T50">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="U50">
-        <v>7060.934079336525</v>
+        <v>33529.42613961059</v>
       </c>
       <c r="V50">
-        <v>13450.49025643078</v>
-      </c>
-      <c r="W50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+        <v>7140.000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G51">
         <v>34</v>
@@ -4062,22 +3903,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J51">
         <v>2017</v>
       </c>
       <c r="K51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M51" s="2">
         <v>43205</v>
       </c>
       <c r="N51">
-        <v>7140</v>
+        <v>7160</v>
       </c>
       <c r="O51">
         <v>100</v>
@@ -4095,36 +3936,33 @@
         <v>98</v>
       </c>
       <c r="T51">
-        <v>0.5294117647058824</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="U51">
-        <v>7069.795250628594</v>
+        <v>33623.34610078596</v>
       </c>
       <c r="V51">
-        <v>13467.37004836558</v>
-      </c>
-      <c r="W51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+        <v>7160.000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F52">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G52">
         <v>34</v>
@@ -4133,22 +3971,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J52">
         <v>2017</v>
       </c>
       <c r="K52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M52" s="2">
         <v>43205</v>
       </c>
       <c r="N52">
-        <v>7160</v>
+        <v>7180</v>
       </c>
       <c r="O52">
         <v>100</v>
@@ -4166,36 +4004,33 @@
         <v>98</v>
       </c>
       <c r="T52">
-        <v>0.5588235294117647</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="U52">
-        <v>7076.377532491871</v>
+        <v>33717.26606196135</v>
       </c>
       <c r="V52">
-        <v>13479.90874608918</v>
-      </c>
-      <c r="W52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+        <v>7180.000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F53">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G53">
         <v>34</v>
@@ -4204,22 +4039,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J53">
         <v>2017</v>
       </c>
       <c r="K53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M53" s="2">
         <v>43205</v>
       </c>
       <c r="N53">
-        <v>7180</v>
+        <v>7200</v>
       </c>
       <c r="O53">
         <v>100</v>
@@ -4237,54 +4072,51 @@
         <v>98</v>
       </c>
       <c r="T53">
-        <v>0.5882352941176471</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="U53">
-        <v>7080.680924926355</v>
+        <v>33811.18602313672</v>
       </c>
       <c r="V53">
-        <v>13488.10634960159</v>
-      </c>
-      <c r="W53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+        <v>7200.000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F54">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G54">
         <v>34</v>
       </c>
       <c r="H54">
-        <v>86.34999999999999</v>
+        <v>113.74</v>
       </c>
       <c r="I54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J54">
         <v>2017</v>
       </c>
       <c r="K54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M54" s="2">
         <v>43205</v>
@@ -4302,42 +4134,39 @@
         <v>102</v>
       </c>
       <c r="R54">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S54">
         <v>98</v>
       </c>
       <c r="T54">
-        <v>0.6176470588235294</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="U54">
-        <v>7082.705427932049</v>
+        <v>33134.96230267399</v>
       </c>
       <c r="V54">
-        <v>13491.9628589028</v>
-      </c>
-      <c r="W54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+        <v>7200.000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F55">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G55">
         <v>34</v>
@@ -4346,22 +4175,22 @@
         <v>113.74</v>
       </c>
       <c r="I55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J55">
         <v>2017</v>
       </c>
       <c r="K55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M55" s="2">
         <v>43205</v>
       </c>
       <c r="N55">
-        <v>7200</v>
+        <v>7180</v>
       </c>
       <c r="O55">
         <v>100</v>
@@ -4379,36 +4208,33 @@
         <v>98</v>
       </c>
       <c r="T55">
-        <v>0.6470588235294118</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="U55">
-        <v>7226.990858682601</v>
+        <v>33042.92074072212</v>
       </c>
       <c r="V55">
-        <v>13491.47827399281</v>
-      </c>
-      <c r="W55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
+        <v>7180.000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F56">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G56">
         <v>34</v>
@@ -4417,22 +4243,22 @@
         <v>113.74</v>
       </c>
       <c r="I56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J56">
         <v>2017</v>
       </c>
       <c r="K56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M56" s="2">
         <v>43205</v>
       </c>
       <c r="N56">
-        <v>7180</v>
+        <v>7160</v>
       </c>
       <c r="O56">
         <v>100</v>
@@ -4450,60 +4276,57 @@
         <v>98</v>
       </c>
       <c r="T56">
-        <v>0.6764705882352942</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="U56">
-        <v>7224.405883323532</v>
+        <v>32950.87917877024</v>
       </c>
       <c r="V56">
-        <v>13486.65259487163</v>
-      </c>
-      <c r="W56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
+        <v>7160.000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57">
         <v>25</v>
       </c>
-      <c r="D57" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57">
-        <v>24</v>
-      </c>
       <c r="G57">
         <v>34</v>
       </c>
       <c r="H57">
-        <v>113.74</v>
+        <v>110.58</v>
       </c>
       <c r="I57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J57">
         <v>2017</v>
       </c>
       <c r="K57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M57" s="2">
         <v>43205</v>
       </c>
       <c r="N57">
-        <v>7160</v>
+        <v>7140</v>
       </c>
       <c r="O57">
         <v>100</v>
@@ -4521,60 +4344,57 @@
         <v>98</v>
       </c>
       <c r="T57">
-        <v>0.7058823529411765</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="U57">
-        <v>7219.495510588142</v>
+        <v>32858.83761681837</v>
       </c>
       <c r="V57">
-        <v>13477.48582153925</v>
-      </c>
-      <c r="W57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+        <v>7140.000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F58">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G58">
         <v>34</v>
       </c>
       <c r="H58">
-        <v>110.58</v>
+        <v>86.34999999999999</v>
       </c>
       <c r="I58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J58">
         <v>2017</v>
       </c>
       <c r="K58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M58" s="2">
         <v>43205</v>
       </c>
       <c r="N58">
-        <v>7140</v>
+        <v>7120</v>
       </c>
       <c r="O58">
         <v>100</v>
@@ -4586,42 +4406,39 @@
         <v>102</v>
       </c>
       <c r="R58">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S58">
         <v>98</v>
       </c>
       <c r="T58">
-        <v>0.7352941176470589</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="U58">
-        <v>7212.259740476435</v>
+        <v>33435.5061784352</v>
       </c>
       <c r="V58">
-        <v>13463.97795399568</v>
-      </c>
-      <c r="W58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+        <v>7120.000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59">
         <v>27</v>
-      </c>
-      <c r="E59" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59">
-        <v>26</v>
       </c>
       <c r="G59">
         <v>34</v>
@@ -4630,22 +4447,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J59">
         <v>2017</v>
       </c>
       <c r="K59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M59" s="2">
         <v>43205</v>
       </c>
       <c r="N59">
-        <v>7120</v>
+        <v>7100</v>
       </c>
       <c r="O59">
         <v>100</v>
@@ -4663,36 +4480,33 @@
         <v>98</v>
       </c>
       <c r="T59">
-        <v>0.7647058823529411</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="U59">
-        <v>7058.64460152864</v>
+        <v>33341.58621725982</v>
       </c>
       <c r="V59">
-        <v>13446.12899224091</v>
-      </c>
-      <c r="W59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
+        <v>7100.000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F60">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G60">
         <v>34</v>
@@ -4701,22 +4515,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J60">
         <v>2017</v>
       </c>
       <c r="K60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M60" s="2">
         <v>43205</v>
       </c>
       <c r="N60">
-        <v>7100</v>
+        <v>7080</v>
       </c>
       <c r="O60">
         <v>100</v>
@@ -4734,36 +4548,33 @@
         <v>98</v>
       </c>
       <c r="T60">
-        <v>0.7941176470588235</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="U60">
-        <v>7046.995767961584</v>
+        <v>33247.66625608444</v>
       </c>
       <c r="V60">
-        <v>13423.93893627494</v>
-      </c>
-      <c r="W60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
+        <v>7080.000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G61">
         <v>34</v>
@@ -4772,22 +4583,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J61">
         <v>2017</v>
       </c>
       <c r="K61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M61" s="2">
         <v>43205</v>
       </c>
       <c r="N61">
-        <v>7080</v>
+        <v>7060</v>
       </c>
       <c r="O61">
         <v>100</v>
@@ -4805,36 +4616,33 @@
         <v>98</v>
       </c>
       <c r="T61">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="U61">
-        <v>7033.068044965736</v>
+        <v>33153.74629490907</v>
       </c>
       <c r="V61">
-        <v>13397.40778609778</v>
-      </c>
-      <c r="W61" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+        <v>7060.000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F62">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>34</v>
@@ -4843,22 +4651,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J62">
         <v>2017</v>
       </c>
       <c r="K62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M62" s="2">
         <v>43205</v>
       </c>
       <c r="N62">
-        <v>7060</v>
+        <v>7040</v>
       </c>
       <c r="O62">
         <v>100</v>
@@ -4876,36 +4684,33 @@
         <v>98</v>
       </c>
       <c r="T62">
-        <v>0.8529411764705882</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="U62">
-        <v>7016.861432541095</v>
+        <v>33059.82633373368</v>
       </c>
       <c r="V62">
-        <v>13366.53554170942</v>
-      </c>
-      <c r="W62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+        <v>7040.000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F63">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63">
         <v>34</v>
@@ -4914,69 +4719,66 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J63">
         <v>2017</v>
       </c>
       <c r="K63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L63" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="2">
+        <v>43205</v>
+      </c>
+      <c r="N63">
+        <v>7020</v>
+      </c>
+      <c r="O63">
+        <v>100</v>
+      </c>
+      <c r="P63">
+        <v>103</v>
+      </c>
+      <c r="Q63">
+        <v>102</v>
+      </c>
+      <c r="R63">
+        <v>98</v>
+      </c>
+      <c r="S63">
+        <v>98</v>
+      </c>
+      <c r="T63">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="U63">
+        <v>32965.9063725583</v>
+      </c>
+      <c r="V63">
+        <v>7020.000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64">
         <v>32</v>
-      </c>
-      <c r="M63" s="2">
-        <v>43205</v>
-      </c>
-      <c r="N63">
-        <v>7040</v>
-      </c>
-      <c r="O63">
-        <v>100</v>
-      </c>
-      <c r="P63">
-        <v>103</v>
-      </c>
-      <c r="Q63">
-        <v>102</v>
-      </c>
-      <c r="R63">
-        <v>98</v>
-      </c>
-      <c r="S63">
-        <v>98</v>
-      </c>
-      <c r="T63">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="U63">
-        <v>6998.375930687665</v>
-      </c>
-      <c r="V63">
-        <v>13331.32220310986</v>
-      </c>
-      <c r="W63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
-      <c r="A64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64">
-        <v>31</v>
       </c>
       <c r="G64">
         <v>34</v>
@@ -4985,22 +4787,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J64">
         <v>2017</v>
       </c>
       <c r="K64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M64" s="2">
         <v>43205</v>
       </c>
       <c r="N64">
-        <v>7020</v>
+        <v>7000</v>
       </c>
       <c r="O64">
         <v>100</v>
@@ -5018,36 +4820,33 @@
         <v>98</v>
       </c>
       <c r="T64">
-        <v>0.9117647058823529</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="U64">
-        <v>6977.611539405441</v>
+        <v>32871.98641138292</v>
       </c>
       <c r="V64">
-        <v>13291.76777029911</v>
-      </c>
-      <c r="W64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+        <v>7000.000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F65">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>34</v>
@@ -5056,22 +4855,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J65">
         <v>2017</v>
       </c>
       <c r="K65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M65" s="2">
         <v>43205</v>
       </c>
       <c r="N65">
-        <v>7000</v>
+        <v>6980</v>
       </c>
       <c r="O65">
         <v>100</v>
@@ -5089,36 +4888,33 @@
         <v>98</v>
       </c>
       <c r="T65">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="U65">
-        <v>6954.568258694425</v>
+        <v>32778.06645020755</v>
       </c>
       <c r="V65">
-        <v>13247.87224327716</v>
-      </c>
-      <c r="W65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
+        <v>6980.000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F66">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>34</v>
@@ -5127,22 +4923,22 @@
         <v>86.34999999999999</v>
       </c>
       <c r="I66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J66">
         <v>2017</v>
       </c>
       <c r="K66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M66" s="2">
         <v>43205</v>
       </c>
       <c r="N66">
-        <v>6980</v>
+        <v>6600</v>
       </c>
       <c r="O66">
         <v>100</v>
@@ -5160,87 +4956,13 @@
         <v>98</v>
       </c>
       <c r="T66">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
       <c r="U66">
-        <v>6929.246088554617</v>
+        <v>30993.58718787533</v>
       </c>
       <c r="V66">
-        <v>13199.63562204402</v>
-      </c>
-      <c r="W66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
-      <c r="A67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67">
-        <v>34</v>
-      </c>
-      <c r="G67">
-        <v>34</v>
-      </c>
-      <c r="H67">
-        <v>86.34999999999999</v>
-      </c>
-      <c r="I67" t="s">
-        <v>30</v>
-      </c>
-      <c r="J67">
-        <v>2017</v>
-      </c>
-      <c r="K67" t="s">
-        <v>31</v>
-      </c>
-      <c r="L67" t="s">
-        <v>32</v>
-      </c>
-      <c r="M67" s="2">
-        <v>43205</v>
-      </c>
-      <c r="N67">
-        <v>6600</v>
-      </c>
-      <c r="O67">
-        <v>100</v>
-      </c>
-      <c r="P67">
-        <v>103</v>
-      </c>
-      <c r="Q67">
-        <v>102</v>
-      </c>
-      <c r="R67">
-        <v>98</v>
-      </c>
-      <c r="S67">
-        <v>98</v>
-      </c>
-      <c r="T67">
-        <v>1</v>
-      </c>
-      <c r="U67">
-        <v>6901.645028986018</v>
-      </c>
-      <c r="V67">
-        <v>13147.05790659968</v>
-      </c>
-      <c r="W67" t="s">
-        <v>34</v>
+        <v>6600.000000000003</v>
       </c>
     </row>
   </sheetData>
